--- a/src/test/java/TestData/LoginTestdata.xlsx
+++ b/src/test/java/TestData/LoginTestdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand.muthukrishnan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITPROJ\AutomationFramework\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>UserName</t>
   </si>
@@ -32,10 +32,64 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin </t>
-  </si>
-  <si>
     <t>admin123 </t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Execution(Yes/No)</t>
+  </si>
+  <si>
+    <t>TestScenario</t>
+  </si>
+  <si>
+    <t>TestCase Description</t>
+  </si>
+  <si>
+    <t>Login Functionality Verification</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Verify whether the Login is successful with Valid UserName &amp; Invalid Password</t>
+  </si>
+  <si>
+    <t>Verify whether the Login is successful with Valid  UserName &amp; Password</t>
+  </si>
+  <si>
+    <t>Verify whether the Login is successful with InValid  UserName &amp; Valid Password</t>
+  </si>
+  <si>
+    <t>Verify whether the Login is successful with InValid  UserName &amp; Password</t>
+  </si>
+  <si>
+    <t>werar!!</t>
+  </si>
+  <si>
+    <t>aslssd</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -65,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,13 +127,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,29 +433,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12342</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
